--- a/results/Daily_Impacts_percent.xlsx
+++ b/results/Daily_Impacts_percent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soham/Desktop/Capstone/Impact_of_Manhattan_Congestion_Surcharge_on_For-Hire_Vehicles/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A52F11C6-90F4-9240-85DF-3226CF29719D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEC2250-EBE7-5C42-B80B-0D28A52A6DC9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="16040" xr2:uid="{B888972C-2467-6E4C-B44B-01FEE3AB8BAB}"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <t>Increase in Average Commute Time (%)</t>
   </si>
   <si>
-    <t>Decrease in Average Commute Cost (%)</t>
+    <t>Change in Average Commute Cost (%)</t>
   </si>
 </sst>
 </file>
@@ -440,13 +440,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1.291E-2</v>
+        <v>1.255E-2</v>
       </c>
       <c r="C3" s="1">
-        <v>3.2299999999999998E-3</v>
+        <v>6.6800000000000002E-3</v>
       </c>
       <c r="D3" s="1">
-        <v>1.951E-2</v>
+        <v>3.47E-3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -454,13 +454,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>8.3040000000000003E-2</v>
+        <v>8.2210000000000005E-2</v>
       </c>
       <c r="C4" s="1">
-        <v>2.017E-2</v>
+        <v>3.3770000000000001E-2</v>
       </c>
       <c r="D4" s="1">
-        <v>5.8160000000000003E-2</v>
+        <v>-3.5899999999999999E-3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -468,13 +468,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>6.923E-2</v>
+        <v>6.8790000000000004E-2</v>
       </c>
       <c r="C5" s="1">
-        <v>1.6879999999999999E-2</v>
+        <v>2.7060000000000001E-2</v>
       </c>
       <c r="D5" s="1">
-        <v>3.9410000000000001E-2</v>
+        <v>-7.1999999999999998E-3</v>
       </c>
     </row>
   </sheetData>

--- a/results/Daily_Impacts_percent.xlsx
+++ b/results/Daily_Impacts_percent.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soham/Desktop/Capstone/Impact_of_Manhattan_Congestion_Surcharge_on_For-Hire_Vehicles/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soham/Library/Containers/com.microsoft.Excel/Data/Desktop/Capstone/Impact_of_Manhattan_Congestion_Surcharge_on_For-Hire_Vehicles/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEC2250-EBE7-5C42-B80B-0D28A52A6DC9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B48D62-981F-2F4B-B9A9-5A361B228432}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="16040" xr2:uid="{B888972C-2467-6E4C-B44B-01FEE3AB8BAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Impact on Commute Statistics</t>
   </si>
@@ -52,6 +52,33 @@
   </si>
   <si>
     <t>Change in Average Commute Cost (%)</t>
+  </si>
+  <si>
+    <t>(1.259 +- 0.193)%</t>
+  </si>
+  <si>
+    <t>(6.882 +- 0.212)%</t>
+  </si>
+  <si>
+    <t>(8.228 +- 0.42)%</t>
+  </si>
+  <si>
+    <t>(0.667 +- 0.095)%</t>
+  </si>
+  <si>
+    <t>(0.324 +- 0.178)%</t>
+  </si>
+  <si>
+    <t>(3.398 +- 0.223)%</t>
+  </si>
+  <si>
+    <t>(-0.453 +- 0.442)%</t>
+  </si>
+  <si>
+    <t>(2.712 +- 0.125)%</t>
+  </si>
+  <si>
+    <t>(-0.775 +- 0.287)%</t>
   </si>
 </sst>
 </file>
@@ -439,42 +466,42 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>1.255E-2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>6.6800000000000002E-3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3.47E-3</v>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>8.2210000000000005E-2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3.3770000000000001E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>-3.5899999999999999E-3</v>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>6.8790000000000004E-2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2.7060000000000001E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>-7.1999999999999998E-3</v>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
